--- a/generated_reports/tradfi_candles.xlsx
+++ b/generated_reports/tradfi_candles.xlsx
@@ -11,22 +11,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$603</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1705680058" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1705680058" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1705680058" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1705680058"/>
+      <pm:revision xmlns:pm="smNativeData" day="1709043473" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1709043473" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1709043473" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1709043473"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4824" uniqueCount="610">
   <si>
     <t>symbol</t>
   </si>
@@ -58,6 +58,9 @@
     <t>False</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>MSFT</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>TSLA</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>ADBE</t>
   </si>
   <si>
@@ -250,9 +250,6 @@
     <t>FTNT</t>
   </si>
   <si>
-    <t>SGEN</t>
-  </si>
-  <si>
     <t>AEP</t>
   </si>
   <si>
@@ -1748,6 +1745,117 @@
   </si>
   <si>
     <t>VNA.DE</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>BLDR</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>JBL</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>CCEP</t>
+  </si>
+  <si>
+    <t>MDB</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1880,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705680058" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1709043473" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1787,7 +1895,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705680058" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1709043473" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1803,7 +1911,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705680058" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1709043473" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1839,7 +1947,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705680058"/>
+          <pm:border xmlns:pm="smNativeData" id="1709043473"/>
         </ext>
       </extLst>
     </border>
@@ -1858,7 +1966,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705680058">
+          <pm:border xmlns:pm="smNativeData" id="1709043473">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1883,7 +1991,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1705680058" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1709043473" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2148,21 +2256,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H568"/>
+  <dimension ref="A1:H603"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="9.178571" customWidth="1"/>
+    <col min="1" max="1" width="12.794643" customWidth="1"/>
     <col min="2" max="2" width="13.892857" customWidth="1"/>
-    <col min="3" max="3" width="14.535714" customWidth="1"/>
-    <col min="4" max="4" width="15.142857" customWidth="1"/>
-    <col min="5" max="5" width="11.366071" customWidth="1"/>
-    <col min="6" max="6" width="21.419643" customWidth="1"/>
-    <col min="7" max="7" width="20.937500" customWidth="1"/>
+    <col min="3" max="3" width="18.553571" customWidth="1"/>
+    <col min="4" max="4" width="19.160714" customWidth="1"/>
+    <col min="5" max="5" width="14.446429" customWidth="1"/>
+    <col min="6" max="6" width="25.035714" customWidth="1"/>
+    <col min="7" max="7" width="16.785714" customWidth="1"/>
     <col min="8" max="8" width="17.428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2200,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2220,13 +2328,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2246,7 +2354,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2272,19 +2380,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -2298,13 +2406,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2324,19 +2432,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2350,7 +2458,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -2376,13 +2484,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2408,13 +2516,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -2457,16 +2565,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -2486,13 +2594,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -2512,13 +2620,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -2538,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -2561,10 +2669,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -2590,13 +2698,13 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -2613,7 +2721,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -2639,7 +2747,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2665,16 +2773,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -2700,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -2720,13 +2828,13 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -2743,7 +2851,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2769,7 +2877,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2778,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -2798,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -2833,7 +2941,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -2847,10 +2955,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -2876,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -2902,13 +3010,13 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -2925,7 +3033,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2937,13 +3045,13 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2980,7 +3088,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -3003,16 +3111,16 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -3055,7 +3163,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -3064,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -3107,16 +3215,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -3133,7 +3241,7 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -3142,7 +3250,7 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -3159,7 +3267,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -3168,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -3185,16 +3293,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -3214,13 +3322,13 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -3266,7 +3374,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -3289,7 +3397,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -3298,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -3344,13 +3452,13 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -3405,13 +3513,13 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3509,7 +3617,7 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -3584,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -3627,16 +3735,16 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -3653,7 +3761,7 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -3679,10 +3787,10 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -3705,7 +3813,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -3714,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -3734,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -3760,7 +3868,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -3783,10 +3891,10 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -3812,7 +3920,7 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -3864,7 +3972,7 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -3916,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -3939,7 +4047,7 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -3948,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -3965,7 +4073,7 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -4020,7 +4128,7 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -4043,16 +4151,16 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -4072,13 +4180,13 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -4095,16 +4203,16 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -4124,7 +4232,7 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -4150,13 +4258,13 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -4173,16 +4281,16 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -4202,13 +4310,13 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -4225,7 +4333,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -4306,13 +4414,13 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -4329,7 +4437,7 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -4358,13 +4466,13 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -4410,13 +4518,13 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
@@ -4433,7 +4541,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -4459,10 +4567,10 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -4485,7 +4593,7 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -4494,7 +4602,7 @@
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -4511,7 +4619,7 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
@@ -4520,7 +4628,7 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -4540,7 +4648,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -4566,13 +4674,13 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -4589,7 +4697,7 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -4618,13 +4726,13 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -4644,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -4667,7 +4775,7 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -4676,7 +4784,7 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -4696,7 +4804,7 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -4757,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G100" t="s">
         <v>9</v>
@@ -4797,7 +4905,7 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -4823,10 +4931,10 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -4849,7 +4957,7 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -4875,16 +4983,16 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -4901,16 +5009,16 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -4927,7 +5035,7 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -4953,7 +5061,7 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
@@ -4979,10 +5087,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -5005,7 +5113,7 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -5031,7 +5139,7 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
@@ -5040,7 +5148,7 @@
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -5060,7 +5168,7 @@
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -5083,7 +5191,7 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -5095,7 +5203,7 @@
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
         <v>9</v>
@@ -5164,13 +5272,13 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -5190,7 +5298,7 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -5213,16 +5321,16 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
@@ -5239,10 +5347,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -5265,16 +5373,16 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -5291,7 +5399,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -5343,10 +5451,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -5369,10 +5477,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -5395,10 +5503,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -5421,10 +5529,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -5447,7 +5555,7 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
@@ -5476,7 +5584,7 @@
         <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -5502,7 +5610,7 @@
         <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -5537,7 +5645,7 @@
         <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
@@ -5554,13 +5662,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -5577,7 +5685,7 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
@@ -5603,7 +5711,7 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
@@ -5612,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -5632,16 +5740,16 @@
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134" t="s">
         <v>9</v>
@@ -5655,16 +5763,16 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F135" t="s">
         <v>9</v>
@@ -5684,7 +5792,7 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -5710,7 +5818,7 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -5745,13 +5853,13 @@
         <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G138" t="s">
         <v>9</v>
       </c>
       <c r="H138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5759,7 +5867,7 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
@@ -5768,7 +5876,7 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -5785,10 +5893,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -5814,7 +5922,7 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -5837,16 +5945,16 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F142" t="s">
         <v>9</v>
@@ -5875,7 +5983,7 @@
         <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G143" t="s">
         <v>9</v>
@@ -5889,7 +5997,7 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -5901,7 +6009,7 @@
         <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G144" t="s">
         <v>9</v>
@@ -5915,7 +6023,7 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
@@ -5941,7 +6049,7 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
@@ -5953,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5967,10 +6075,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
@@ -5996,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
@@ -6019,7 +6127,7 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
@@ -6031,7 +6139,7 @@
         <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G149" t="s">
         <v>9</v>
@@ -6045,7 +6153,7 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
@@ -6054,10 +6162,10 @@
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G150" t="s">
         <v>9</v>
@@ -6071,7 +6179,7 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -6080,10 +6188,10 @@
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G151" t="s">
         <v>9</v>
@@ -6123,16 +6231,16 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
         <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
@@ -6161,7 +6269,7 @@
         <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G154" t="s">
         <v>9</v>
@@ -6175,16 +6283,16 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F155" t="s">
         <v>9</v>
@@ -6230,13 +6338,13 @@
         <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
       </c>
       <c r="E157" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -6253,16 +6361,16 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
@@ -6282,13 +6390,13 @@
         <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
         <v>9</v>
@@ -6308,7 +6416,7 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
@@ -6343,7 +6451,7 @@
         <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G161" t="s">
         <v>9</v>
@@ -6357,16 +6465,16 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
         <v>9</v>
@@ -6383,16 +6491,16 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
         <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F163" t="s">
         <v>9</v>
@@ -6435,7 +6543,7 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -6464,7 +6572,7 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -6487,7 +6595,7 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -6496,7 +6604,7 @@
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F167" t="s">
         <v>9</v>
@@ -6539,16 +6647,16 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F169" t="s">
         <v>9</v>
@@ -6574,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G170" t="s">
         <v>9</v>
@@ -6620,13 +6728,13 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
@@ -6672,7 +6780,7 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
@@ -6698,13 +6806,13 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F175" t="s">
         <v>9</v>
@@ -6721,16 +6829,16 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F176" t="s">
         <v>9</v>
@@ -6747,7 +6855,7 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -6756,7 +6864,7 @@
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
         <v>9</v>
@@ -6799,16 +6907,16 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F179" t="s">
         <v>9</v>
@@ -6825,7 +6933,7 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -6834,16 +6942,16 @@
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G180" t="s">
         <v>9</v>
       </c>
       <c r="H180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6854,7 +6962,7 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
@@ -6903,10 +7011,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
@@ -6932,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -6958,13 +7066,13 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F185" t="s">
         <v>9</v>
@@ -6981,7 +7089,7 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -6990,7 +7098,7 @@
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F186" t="s">
         <v>9</v>
@@ -7007,7 +7115,7 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -7016,7 +7124,7 @@
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F187" t="s">
         <v>9</v>
@@ -7033,7 +7141,7 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -7042,7 +7150,7 @@
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F188" t="s">
         <v>9</v>
@@ -7059,7 +7167,7 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -7068,7 +7176,7 @@
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F189" t="s">
         <v>9</v>
@@ -7088,7 +7196,7 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
@@ -7114,13 +7222,13 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F191" t="s">
         <v>9</v>
@@ -7140,7 +7248,7 @@
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
@@ -7163,7 +7271,7 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -7189,7 +7297,7 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -7198,7 +7306,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F194" t="s">
         <v>9</v>
@@ -7227,7 +7335,7 @@
         <v>9</v>
       </c>
       <c r="F195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G195" t="s">
         <v>9</v>
@@ -7241,7 +7349,7 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -7253,7 +7361,7 @@
         <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G196" t="s">
         <v>9</v>
@@ -7270,13 +7378,13 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F197" t="s">
         <v>9</v>
@@ -7296,7 +7404,7 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
@@ -7322,13 +7430,13 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F199" t="s">
         <v>9</v>
@@ -7348,13 +7456,13 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F200" t="s">
         <v>9</v>
@@ -7380,10 +7488,10 @@
         <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G201" t="s">
         <v>9</v>
@@ -7423,7 +7531,7 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -7449,16 +7557,16 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F204" t="s">
         <v>9</v>
@@ -7478,7 +7586,7 @@
         <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
@@ -7501,16 +7609,16 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F206" t="s">
         <v>9</v>
@@ -7553,7 +7661,7 @@
         <v>216</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -7657,7 +7765,7 @@
         <v>220</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -7666,7 +7774,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F212" t="s">
         <v>9</v>
@@ -7683,7 +7791,7 @@
         <v>221</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -7709,7 +7817,7 @@
         <v>222</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -7718,7 +7826,7 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F214" t="s">
         <v>9</v>
@@ -7761,16 +7869,16 @@
         <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F216" t="s">
         <v>9</v>
@@ -7790,13 +7898,13 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F217" t="s">
         <v>9</v>
@@ -7816,7 +7924,7 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
         <v>9</v>
@@ -7839,7 +7947,7 @@
         <v>227</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -7868,13 +7976,13 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F220" t="s">
         <v>9</v>
@@ -7891,7 +7999,7 @@
         <v>229</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -7900,7 +8008,7 @@
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F221" t="s">
         <v>9</v>
@@ -7946,13 +8054,13 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F223" t="s">
         <v>9</v>
@@ -7969,7 +8077,7 @@
         <v>232</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -7981,7 +8089,7 @@
         <v>9</v>
       </c>
       <c r="F224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G224" t="s">
         <v>9</v>
@@ -7998,13 +8106,13 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F225" t="s">
         <v>9</v>
@@ -8024,13 +8132,13 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F226" t="s">
         <v>9</v>
@@ -8047,16 +8155,16 @@
         <v>235</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F227" t="s">
         <v>9</v>
@@ -8073,16 +8181,16 @@
         <v>236</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F228" t="s">
         <v>9</v>
@@ -8102,13 +8210,13 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F229" t="s">
         <v>9</v>
@@ -8125,7 +8233,7 @@
         <v>238</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -8151,7 +8259,7 @@
         <v>239</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -8160,7 +8268,7 @@
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F231" t="s">
         <v>9</v>
@@ -8177,7 +8285,7 @@
         <v>240</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -8186,7 +8294,7 @@
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F232" t="s">
         <v>9</v>
@@ -8203,16 +8311,16 @@
         <v>241</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D233" t="s">
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F233" t="s">
         <v>9</v>
@@ -8229,16 +8337,16 @@
         <v>242</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F234" t="s">
         <v>9</v>
@@ -8267,7 +8375,7 @@
         <v>9</v>
       </c>
       <c r="F235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G235" t="s">
         <v>9</v>
@@ -8284,7 +8392,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
@@ -8307,10 +8415,10 @@
         <v>245</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D237" t="s">
         <v>9</v>
@@ -8333,7 +8441,7 @@
         <v>246</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -8388,7 +8496,7 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D240" t="s">
         <v>9</v>
@@ -8411,16 +8519,16 @@
         <v>249</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
       </c>
       <c r="E241" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F241" t="s">
         <v>9</v>
@@ -8466,7 +8574,7 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D243" t="s">
         <v>9</v>
@@ -8492,13 +8600,13 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D244" t="s">
         <v>9</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F244" t="s">
         <v>9</v>
@@ -8518,19 +8626,19 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
         <v>9</v>
       </c>
       <c r="E245" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F245" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8541,16 +8649,16 @@
         <v>254</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D246" t="s">
         <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F246" t="s">
         <v>9</v>
@@ -8570,7 +8678,7 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
@@ -8593,7 +8701,7 @@
         <v>256</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
@@ -8602,7 +8710,7 @@
         <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F248" t="s">
         <v>9</v>
@@ -8622,7 +8730,7 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D249" t="s">
         <v>9</v>
@@ -8657,13 +8765,13 @@
         <v>9</v>
       </c>
       <c r="F250" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G250" t="s">
         <v>9</v>
       </c>
       <c r="H250" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8671,7 +8779,7 @@
         <v>259</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C251" t="s">
         <v>9</v>
@@ -8680,7 +8788,7 @@
         <v>9</v>
       </c>
       <c r="E251" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F251" t="s">
         <v>9</v>
@@ -8726,7 +8834,7 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D253" t="s">
         <v>9</v>
@@ -8735,7 +8843,7 @@
         <v>9</v>
       </c>
       <c r="F253" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G253" t="s">
         <v>9</v>
@@ -8752,7 +8860,7 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -8761,10 +8869,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G254" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8778,7 +8886,7 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s">
         <v>9</v>
@@ -8801,7 +8909,7 @@
         <v>264</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
@@ -8830,7 +8938,7 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D257" t="s">
         <v>9</v>
@@ -8853,16 +8961,16 @@
         <v>266</v>
       </c>
       <c r="B258" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D258" t="s">
         <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F258" t="s">
         <v>9</v>
@@ -8879,16 +8987,16 @@
         <v>267</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D259" t="s">
         <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F259" t="s">
         <v>9</v>
@@ -8931,7 +9039,7 @@
         <v>269</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
         <v>9</v>
@@ -8943,7 +9051,7 @@
         <v>9</v>
       </c>
       <c r="F261" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G261" t="s">
         <v>9</v>
@@ -8957,7 +9065,7 @@
         <v>270</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
         <v>9</v>
@@ -8966,7 +9074,7 @@
         <v>9</v>
       </c>
       <c r="E262" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F262" t="s">
         <v>9</v>
@@ -9012,7 +9120,7 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D264" t="s">
         <v>9</v>
@@ -9047,7 +9155,7 @@
         <v>9</v>
       </c>
       <c r="F265" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G265" t="s">
         <v>9</v>
@@ -9087,16 +9195,16 @@
         <v>275</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D267" t="s">
         <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F267" t="s">
         <v>9</v>
@@ -9113,7 +9221,7 @@
         <v>276</v>
       </c>
       <c r="B268" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
@@ -9122,7 +9230,7 @@
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F268" t="s">
         <v>9</v>
@@ -9168,13 +9276,13 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D270" t="s">
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F270" t="s">
         <v>9</v>
@@ -9194,7 +9302,7 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D271" t="s">
         <v>9</v>
@@ -9217,7 +9325,7 @@
         <v>280</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
@@ -9226,7 +9334,7 @@
         <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F272" t="s">
         <v>9</v>
@@ -9269,10 +9377,10 @@
         <v>282</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D274" t="s">
         <v>9</v>
@@ -9295,16 +9403,16 @@
         <v>283</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D275" t="s">
         <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F275" t="s">
         <v>9</v>
@@ -9350,13 +9458,13 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D277" t="s">
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F277" t="s">
         <v>9</v>
@@ -9373,16 +9481,16 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D278" t="s">
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F278" t="s">
         <v>9</v>
@@ -9460,10 +9568,10 @@
         <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F281" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G281" t="s">
         <v>9</v>
@@ -9480,7 +9588,7 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D282" t="s">
         <v>9</v>
@@ -9489,7 +9597,7 @@
         <v>9</v>
       </c>
       <c r="F282" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G282" t="s">
         <v>9</v>
@@ -9541,7 +9649,7 @@
         <v>9</v>
       </c>
       <c r="F284" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G284" t="s">
         <v>9</v>
@@ -9581,7 +9689,7 @@
         <v>294</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
         <v>9</v>
@@ -9590,10 +9698,10 @@
         <v>9</v>
       </c>
       <c r="E286" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F286" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G286" t="s">
         <v>9</v>
@@ -9636,13 +9744,13 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
       </c>
       <c r="E288" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F288" t="s">
         <v>9</v>
@@ -9662,7 +9770,7 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D289" t="s">
         <v>9</v>
@@ -9723,7 +9831,7 @@
         <v>9</v>
       </c>
       <c r="F291" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G291" t="s">
         <v>9</v>
@@ -9737,10 +9845,10 @@
         <v>300</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D292" t="s">
         <v>9</v>
@@ -9766,16 +9874,16 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D293" t="s">
         <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F293" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G293" t="s">
         <v>9</v>
@@ -9815,16 +9923,16 @@
         <v>303</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D295" t="s">
         <v>9</v>
       </c>
       <c r="E295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F295" t="s">
         <v>9</v>
@@ -9841,16 +9949,16 @@
         <v>304</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D296" t="s">
         <v>9</v>
       </c>
       <c r="E296" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F296" t="s">
         <v>9</v>
@@ -9919,7 +10027,7 @@
         <v>307</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
         <v>9</v>
@@ -9928,7 +10036,7 @@
         <v>9</v>
       </c>
       <c r="E299" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F299" t="s">
         <v>9</v>
@@ -9945,7 +10053,7 @@
         <v>308</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
         <v>9</v>
@@ -9971,16 +10079,16 @@
         <v>309</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D301" t="s">
         <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F301" t="s">
         <v>9</v>
@@ -10009,7 +10117,7 @@
         <v>9</v>
       </c>
       <c r="F302" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G302" t="s">
         <v>9</v>
@@ -10026,7 +10134,7 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D303" t="s">
         <v>9</v>
@@ -10035,7 +10143,7 @@
         <v>9</v>
       </c>
       <c r="F303" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G303" t="s">
         <v>9</v>
@@ -10061,7 +10169,7 @@
         <v>9</v>
       </c>
       <c r="F304" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G304" t="s">
         <v>9</v>
@@ -10078,7 +10186,7 @@
         <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D305" t="s">
         <v>9</v>
@@ -10127,19 +10235,19 @@
         <v>315</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D307" t="s">
         <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F307" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G307" t="s">
         <v>9</v>
@@ -10153,7 +10261,7 @@
         <v>316</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
         <v>9</v>
@@ -10179,10 +10287,10 @@
         <v>317</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D309" t="s">
         <v>9</v>
@@ -10234,13 +10342,13 @@
         <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D311" t="s">
         <v>9</v>
       </c>
       <c r="E311" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F311" t="s">
         <v>9</v>
@@ -10257,7 +10365,7 @@
         <v>320</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
@@ -10286,7 +10394,7 @@
         <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D313" t="s">
         <v>9</v>
@@ -10312,7 +10420,7 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D314" t="s">
         <v>9</v>
@@ -10335,16 +10443,16 @@
         <v>323</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D315" t="s">
         <v>9</v>
       </c>
       <c r="E315" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F315" t="s">
         <v>9</v>
@@ -10416,13 +10524,13 @@
         <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D318" t="s">
         <v>9</v>
       </c>
       <c r="E318" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F318" t="s">
         <v>9</v>
@@ -10451,7 +10559,7 @@
         <v>9</v>
       </c>
       <c r="F319" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G319" t="s">
         <v>9</v>
@@ -10468,7 +10576,7 @@
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D320" t="s">
         <v>9</v>
@@ -10494,7 +10602,7 @@
         <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D321" t="s">
         <v>9</v>
@@ -10503,13 +10611,13 @@
         <v>9</v>
       </c>
       <c r="F321" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G321" t="s">
         <v>9</v>
       </c>
       <c r="H321" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10520,13 +10628,13 @@
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D322" t="s">
         <v>9</v>
       </c>
       <c r="E322" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F322" t="s">
         <v>9</v>
@@ -10543,16 +10651,16 @@
         <v>331</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
         <v>9</v>
       </c>
       <c r="E323" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F323" t="s">
         <v>9</v>
@@ -10569,7 +10677,7 @@
         <v>332</v>
       </c>
       <c r="B324" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
         <v>9</v>
@@ -10607,7 +10715,7 @@
         <v>9</v>
       </c>
       <c r="F325" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G325" t="s">
         <v>9</v>
@@ -10621,16 +10729,16 @@
         <v>334</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D326" t="s">
         <v>9</v>
       </c>
       <c r="E326" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F326" t="s">
         <v>9</v>
@@ -10650,7 +10758,7 @@
         <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D327" t="s">
         <v>9</v>
@@ -10673,16 +10781,16 @@
         <v>336</v>
       </c>
       <c r="B328" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D328" t="s">
         <v>9</v>
       </c>
       <c r="E328" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F328" t="s">
         <v>9</v>
@@ -10699,7 +10807,7 @@
         <v>337</v>
       </c>
       <c r="B329" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C329" t="s">
         <v>9</v>
@@ -10728,7 +10836,7 @@
         <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D330" t="s">
         <v>9</v>
@@ -10751,7 +10859,7 @@
         <v>339</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C331" t="s">
         <v>9</v>
@@ -10803,7 +10911,7 @@
         <v>341</v>
       </c>
       <c r="B333" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
         <v>9</v>
@@ -10858,13 +10966,13 @@
         <v>9</v>
       </c>
       <c r="C335" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D335" t="s">
         <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F335" t="s">
         <v>9</v>
@@ -10881,16 +10989,16 @@
         <v>344</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D336" t="s">
         <v>9</v>
       </c>
       <c r="E336" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F336" t="s">
         <v>9</v>
@@ -10936,7 +11044,7 @@
         <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D338" t="s">
         <v>9</v>
@@ -10959,16 +11067,16 @@
         <v>347</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C339" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D339" t="s">
         <v>9</v>
       </c>
       <c r="E339" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F339" t="s">
         <v>9</v>
@@ -10985,16 +11093,16 @@
         <v>348</v>
       </c>
       <c r="B340" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D340" t="s">
         <v>9</v>
       </c>
       <c r="E340" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F340" t="s">
         <v>9</v>
@@ -11040,7 +11148,7 @@
         <v>9</v>
       </c>
       <c r="C342" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D342" t="s">
         <v>9</v>
@@ -11092,7 +11200,7 @@
         <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D344" t="s">
         <v>9</v>
@@ -11118,13 +11226,13 @@
         <v>9</v>
       </c>
       <c r="C345" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D345" t="s">
         <v>9</v>
       </c>
       <c r="E345" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F345" t="s">
         <v>9</v>
@@ -11144,7 +11252,7 @@
         <v>9</v>
       </c>
       <c r="C346" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D346" t="s">
         <v>9</v>
@@ -11179,7 +11287,7 @@
         <v>9</v>
       </c>
       <c r="F347" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G347" t="s">
         <v>9</v>
@@ -11193,7 +11301,7 @@
         <v>356</v>
       </c>
       <c r="B348" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C348" t="s">
         <v>9</v>
@@ -11219,7 +11327,7 @@
         <v>357</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C349" t="s">
         <v>9</v>
@@ -11248,7 +11356,7 @@
         <v>9</v>
       </c>
       <c r="C350" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D350" t="s">
         <v>9</v>
@@ -11297,16 +11405,16 @@
         <v>360</v>
       </c>
       <c r="B352" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C352" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D352" t="s">
         <v>9</v>
       </c>
       <c r="E352" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F352" t="s">
         <v>9</v>
@@ -11326,7 +11434,7 @@
         <v>9</v>
       </c>
       <c r="C353" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D353" t="s">
         <v>9</v>
@@ -11361,7 +11469,7 @@
         <v>9</v>
       </c>
       <c r="F354" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G354" t="s">
         <v>9</v>
@@ -11375,7 +11483,7 @@
         <v>363</v>
       </c>
       <c r="B355" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C355" t="s">
         <v>9</v>
@@ -11401,10 +11509,10 @@
         <v>364</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C356" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D356" t="s">
         <v>9</v>
@@ -11427,7 +11535,7 @@
         <v>365</v>
       </c>
       <c r="B357" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
@@ -11436,7 +11544,7 @@
         <v>9</v>
       </c>
       <c r="E357" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F357" t="s">
         <v>9</v>
@@ -11482,13 +11590,13 @@
         <v>9</v>
       </c>
       <c r="C359" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D359" t="s">
         <v>9</v>
       </c>
       <c r="E359" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F359" t="s">
         <v>9</v>
@@ -11505,7 +11613,7 @@
         <v>368</v>
       </c>
       <c r="B360" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C360" t="s">
         <v>9</v>
@@ -11557,16 +11665,16 @@
         <v>370</v>
       </c>
       <c r="B362" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C362" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D362" t="s">
         <v>9</v>
       </c>
       <c r="E362" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F362" t="s">
         <v>9</v>
@@ -11612,16 +11720,16 @@
         <v>9</v>
       </c>
       <c r="C364" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D364" t="s">
         <v>9</v>
       </c>
       <c r="E364" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F364" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G364" t="s">
         <v>9</v>
@@ -11687,7 +11795,7 @@
         <v>375</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C367" t="s">
         <v>9</v>
@@ -11716,7 +11824,7 @@
         <v>9</v>
       </c>
       <c r="C368" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D368" t="s">
         <v>9</v>
@@ -11725,7 +11833,7 @@
         <v>9</v>
       </c>
       <c r="F368" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G368" t="s">
         <v>9</v>
@@ -11739,10 +11847,10 @@
         <v>377</v>
       </c>
       <c r="B369" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C369" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D369" t="s">
         <v>9</v>
@@ -11791,16 +11899,16 @@
         <v>379</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C371" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D371" t="s">
         <v>9</v>
       </c>
       <c r="E371" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F371" t="s">
         <v>9</v>
@@ -11820,7 +11928,7 @@
         <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D372" t="s">
         <v>9</v>
@@ -11869,7 +11977,7 @@
         <v>382</v>
       </c>
       <c r="B374" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C374" t="s">
         <v>9</v>
@@ -11878,7 +11986,7 @@
         <v>9</v>
       </c>
       <c r="E374" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F374" t="s">
         <v>9</v>
@@ -11898,13 +12006,13 @@
         <v>9</v>
       </c>
       <c r="C375" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D375" t="s">
         <v>9</v>
       </c>
       <c r="E375" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F375" t="s">
         <v>9</v>
@@ -11924,7 +12032,7 @@
         <v>9</v>
       </c>
       <c r="C376" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D376" t="s">
         <v>9</v>
@@ -11959,7 +12067,7 @@
         <v>9</v>
       </c>
       <c r="F377" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G377" t="s">
         <v>9</v>
@@ -11973,7 +12081,7 @@
         <v>386</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C378" t="s">
         <v>9</v>
@@ -11982,7 +12090,7 @@
         <v>9</v>
       </c>
       <c r="E378" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F378" t="s">
         <v>9</v>
@@ -11999,7 +12107,7 @@
         <v>387</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C379" t="s">
         <v>9</v>
@@ -12028,13 +12136,13 @@
         <v>9</v>
       </c>
       <c r="C380" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D380" t="s">
         <v>9</v>
       </c>
       <c r="E380" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F380" t="s">
         <v>9</v>
@@ -12051,16 +12159,16 @@
         <v>389</v>
       </c>
       <c r="B381" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C381" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D381" t="s">
         <v>9</v>
       </c>
       <c r="E381" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F381" t="s">
         <v>9</v>
@@ -12077,7 +12185,7 @@
         <v>390</v>
       </c>
       <c r="B382" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C382" t="s">
         <v>9</v>
@@ -12086,7 +12194,7 @@
         <v>9</v>
       </c>
       <c r="E382" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F382" t="s">
         <v>9</v>
@@ -12103,16 +12211,16 @@
         <v>391</v>
       </c>
       <c r="B383" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C383" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D383" t="s">
         <v>9</v>
       </c>
       <c r="E383" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F383" t="s">
         <v>9</v>
@@ -12129,7 +12237,7 @@
         <v>392</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C384" t="s">
         <v>9</v>
@@ -12167,7 +12275,7 @@
         <v>9</v>
       </c>
       <c r="F385" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G385" t="s">
         <v>9</v>
@@ -12181,7 +12289,7 @@
         <v>394</v>
       </c>
       <c r="B386" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C386" t="s">
         <v>9</v>
@@ -12190,7 +12298,7 @@
         <v>9</v>
       </c>
       <c r="E386" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F386" t="s">
         <v>9</v>
@@ -12233,16 +12341,16 @@
         <v>396</v>
       </c>
       <c r="B388" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D388" t="s">
         <v>9</v>
       </c>
       <c r="E388" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F388" t="s">
         <v>9</v>
@@ -12259,7 +12367,7 @@
         <v>397</v>
       </c>
       <c r="B389" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
@@ -12323,13 +12431,13 @@
         <v>9</v>
       </c>
       <c r="F391" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G391" t="s">
         <v>9</v>
       </c>
       <c r="H391" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12340,7 +12448,7 @@
         <v>9</v>
       </c>
       <c r="C392" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D392" t="s">
         <v>9</v>
@@ -12363,16 +12471,16 @@
         <v>401</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C393" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D393" t="s">
         <v>9</v>
       </c>
       <c r="E393" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F393" t="s">
         <v>9</v>
@@ -12392,7 +12500,7 @@
         <v>9</v>
       </c>
       <c r="C394" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D394" t="s">
         <v>9</v>
@@ -12444,7 +12552,7 @@
         <v>9</v>
       </c>
       <c r="C396" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D396" t="s">
         <v>9</v>
@@ -12522,13 +12630,13 @@
         <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D399" t="s">
         <v>9</v>
       </c>
       <c r="E399" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F399" t="s">
         <v>9</v>
@@ -12548,13 +12656,13 @@
         <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D400" t="s">
         <v>9</v>
       </c>
       <c r="E400" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F400" t="s">
         <v>9</v>
@@ -12626,13 +12734,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D403" t="s">
         <v>9</v>
       </c>
       <c r="E403" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F403" t="s">
         <v>9</v>
@@ -12649,7 +12757,7 @@
         <v>412</v>
       </c>
       <c r="B404" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C404" t="s">
         <v>9</v>
@@ -12658,7 +12766,7 @@
         <v>9</v>
       </c>
       <c r="E404" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F404" t="s">
         <v>9</v>
@@ -12678,7 +12786,7 @@
         <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D405" t="s">
         <v>9</v>
@@ -12704,7 +12812,7 @@
         <v>9</v>
       </c>
       <c r="C406" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D406" t="s">
         <v>9</v>
@@ -12753,7 +12861,7 @@
         <v>416</v>
       </c>
       <c r="B408" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C408" t="s">
         <v>9</v>
@@ -12762,7 +12870,7 @@
         <v>9</v>
       </c>
       <c r="E408" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F408" t="s">
         <v>9</v>
@@ -12779,16 +12887,16 @@
         <v>417</v>
       </c>
       <c r="B409" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C409" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D409" t="s">
         <v>9</v>
       </c>
       <c r="E409" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F409" t="s">
         <v>9</v>
@@ -12843,13 +12951,13 @@
         <v>9</v>
       </c>
       <c r="F411" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G411" t="s">
         <v>9</v>
       </c>
       <c r="H411" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12857,7 +12965,7 @@
         <v>420</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C412" t="s">
         <v>9</v>
@@ -12886,7 +12994,7 @@
         <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D413" t="s">
         <v>9</v>
@@ -12909,7 +13017,7 @@
         <v>422</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C414" t="s">
         <v>9</v>
@@ -12938,7 +13046,7 @@
         <v>9</v>
       </c>
       <c r="C415" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D415" t="s">
         <v>9</v>
@@ -12964,7 +13072,7 @@
         <v>9</v>
       </c>
       <c r="C416" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D416" t="s">
         <v>9</v>
@@ -13016,7 +13124,7 @@
         <v>9</v>
       </c>
       <c r="C418" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D418" t="s">
         <v>9</v>
@@ -13039,7 +13147,7 @@
         <v>427</v>
       </c>
       <c r="B419" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C419" t="s">
         <v>9</v>
@@ -13048,7 +13156,7 @@
         <v>9</v>
       </c>
       <c r="E419" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F419" t="s">
         <v>9</v>
@@ -13065,10 +13173,10 @@
         <v>428</v>
       </c>
       <c r="B420" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C420" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D420" t="s">
         <v>9</v>
@@ -13117,7 +13225,7 @@
         <v>430</v>
       </c>
       <c r="B422" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C422" t="s">
         <v>9</v>
@@ -13146,7 +13254,7 @@
         <v>9</v>
       </c>
       <c r="C423" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D423" t="s">
         <v>9</v>
@@ -13195,16 +13303,16 @@
         <v>433</v>
       </c>
       <c r="B425" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C425" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D425" t="s">
         <v>9</v>
       </c>
       <c r="E425" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F425" t="s">
         <v>9</v>
@@ -13221,7 +13329,7 @@
         <v>434</v>
       </c>
       <c r="B426" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C426" t="s">
         <v>9</v>
@@ -13250,7 +13358,7 @@
         <v>9</v>
       </c>
       <c r="C427" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D427" t="s">
         <v>9</v>
@@ -13285,7 +13393,7 @@
         <v>9</v>
       </c>
       <c r="F428" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G428" t="s">
         <v>9</v>
@@ -13299,7 +13407,7 @@
         <v>437</v>
       </c>
       <c r="B429" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C429" t="s">
         <v>9</v>
@@ -13308,10 +13416,10 @@
         <v>9</v>
       </c>
       <c r="E429" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F429" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G429" t="s">
         <v>9</v>
@@ -13328,7 +13436,7 @@
         <v>9</v>
       </c>
       <c r="C430" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D430" t="s">
         <v>9</v>
@@ -13337,7 +13445,7 @@
         <v>9</v>
       </c>
       <c r="F430" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G430" t="s">
         <v>9</v>
@@ -13351,7 +13459,7 @@
         <v>439</v>
       </c>
       <c r="B431" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C431" t="s">
         <v>9</v>
@@ -13360,7 +13468,7 @@
         <v>9</v>
       </c>
       <c r="E431" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F431" t="s">
         <v>9</v>
@@ -13380,7 +13488,7 @@
         <v>9</v>
       </c>
       <c r="C432" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D432" t="s">
         <v>9</v>
@@ -13415,7 +13523,7 @@
         <v>9</v>
       </c>
       <c r="F433" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G433" t="s">
         <v>9</v>
@@ -13458,7 +13566,7 @@
         <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D435" t="s">
         <v>9</v>
@@ -13510,7 +13618,7 @@
         <v>9</v>
       </c>
       <c r="C437" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D437" t="s">
         <v>9</v>
@@ -13533,7 +13641,7 @@
         <v>446</v>
       </c>
       <c r="B438" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C438" t="s">
         <v>9</v>
@@ -13542,7 +13650,7 @@
         <v>9</v>
       </c>
       <c r="E438" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F438" t="s">
         <v>9</v>
@@ -13562,7 +13670,7 @@
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D439" t="s">
         <v>9</v>
@@ -13588,13 +13696,13 @@
         <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D440" t="s">
         <v>9</v>
       </c>
       <c r="E440" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F440" t="s">
         <v>9</v>
@@ -13611,7 +13719,7 @@
         <v>449</v>
       </c>
       <c r="B441" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C441" t="s">
         <v>9</v>
@@ -13637,16 +13745,16 @@
         <v>450</v>
       </c>
       <c r="B442" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C442" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D442" t="s">
         <v>9</v>
       </c>
       <c r="E442" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F442" t="s">
         <v>9</v>
@@ -13666,7 +13774,7 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D443" t="s">
         <v>9</v>
@@ -13701,7 +13809,7 @@
         <v>9</v>
       </c>
       <c r="F444" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G444" t="s">
         <v>9</v>
@@ -13727,7 +13835,7 @@
         <v>9</v>
       </c>
       <c r="F445" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G445" t="s">
         <v>9</v>
@@ -13744,13 +13852,13 @@
         <v>9</v>
       </c>
       <c r="C446" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D446" t="s">
         <v>9</v>
       </c>
       <c r="E446" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F446" t="s">
         <v>9</v>
@@ -13767,7 +13875,7 @@
         <v>455</v>
       </c>
       <c r="B447" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C447" t="s">
         <v>9</v>
@@ -13776,7 +13884,7 @@
         <v>9</v>
       </c>
       <c r="E447" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F447" t="s">
         <v>9</v>
@@ -13796,13 +13904,13 @@
         <v>9</v>
       </c>
       <c r="C448" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D448" t="s">
         <v>9</v>
       </c>
       <c r="E448" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F448" t="s">
         <v>9</v>
@@ -13848,13 +13956,13 @@
         <v>9</v>
       </c>
       <c r="C450" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D450" t="s">
         <v>9</v>
       </c>
       <c r="E450" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F450" t="s">
         <v>9</v>
@@ -13897,16 +14005,16 @@
         <v>460</v>
       </c>
       <c r="B452" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C452" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D452" t="s">
         <v>9</v>
       </c>
       <c r="E452" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F452" t="s">
         <v>9</v>
@@ -13949,7 +14057,7 @@
         <v>462</v>
       </c>
       <c r="B454" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C454" t="s">
         <v>9</v>
@@ -13958,7 +14066,7 @@
         <v>9</v>
       </c>
       <c r="E454" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F454" t="s">
         <v>9</v>
@@ -14004,13 +14112,13 @@
         <v>9</v>
       </c>
       <c r="C456" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D456" t="s">
         <v>9</v>
       </c>
       <c r="E456" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F456" t="s">
         <v>9</v>
@@ -14027,7 +14135,7 @@
         <v>465</v>
       </c>
       <c r="B457" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C457" t="s">
         <v>9</v>
@@ -14053,10 +14161,10 @@
         <v>466</v>
       </c>
       <c r="B458" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C458" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D458" t="s">
         <v>9</v>
@@ -14079,16 +14187,16 @@
         <v>467</v>
       </c>
       <c r="B459" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C459" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D459" t="s">
         <v>9</v>
       </c>
       <c r="E459" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F459" t="s">
         <v>9</v>
@@ -14108,13 +14216,13 @@
         <v>9</v>
       </c>
       <c r="C460" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D460" t="s">
         <v>9</v>
       </c>
       <c r="E460" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F460" t="s">
         <v>9</v>
@@ -14134,7 +14242,7 @@
         <v>9</v>
       </c>
       <c r="C461" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D461" t="s">
         <v>9</v>
@@ -14160,7 +14268,7 @@
         <v>9</v>
       </c>
       <c r="C462" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D462" t="s">
         <v>9</v>
@@ -14183,7 +14291,7 @@
         <v>471</v>
       </c>
       <c r="B463" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C463" t="s">
         <v>9</v>
@@ -14209,7 +14317,7 @@
         <v>472</v>
       </c>
       <c r="B464" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C464" t="s">
         <v>9</v>
@@ -14218,7 +14326,7 @@
         <v>9</v>
       </c>
       <c r="E464" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F464" t="s">
         <v>9</v>
@@ -14238,7 +14346,7 @@
         <v>9</v>
       </c>
       <c r="C465" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D465" t="s">
         <v>9</v>
@@ -14261,7 +14369,7 @@
         <v>474</v>
       </c>
       <c r="B466" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -14270,10 +14378,10 @@
         <v>9</v>
       </c>
       <c r="E466" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F466" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G466" t="s">
         <v>9</v>
@@ -14290,13 +14398,13 @@
         <v>9</v>
       </c>
       <c r="C467" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D467" t="s">
         <v>9</v>
       </c>
       <c r="E467" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F467" t="s">
         <v>9</v>
@@ -14313,16 +14421,16 @@
         <v>476</v>
       </c>
       <c r="B468" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C468" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D468" t="s">
         <v>9</v>
       </c>
       <c r="E468" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F468" t="s">
         <v>9</v>
@@ -14368,13 +14476,13 @@
         <v>9</v>
       </c>
       <c r="C470" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D470" t="s">
         <v>9</v>
       </c>
       <c r="E470" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F470" t="s">
         <v>9</v>
@@ -14391,7 +14499,7 @@
         <v>479</v>
       </c>
       <c r="B471" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C471" t="s">
         <v>9</v>
@@ -14417,7 +14525,7 @@
         <v>480</v>
       </c>
       <c r="B472" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
@@ -14426,7 +14534,7 @@
         <v>9</v>
       </c>
       <c r="E472" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F472" t="s">
         <v>9</v>
@@ -14443,7 +14551,7 @@
         <v>481</v>
       </c>
       <c r="B473" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
@@ -14469,7 +14577,7 @@
         <v>482</v>
       </c>
       <c r="B474" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C474" t="s">
         <v>9</v>
@@ -14478,7 +14586,7 @@
         <v>9</v>
       </c>
       <c r="E474" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F474" t="s">
         <v>9</v>
@@ -14498,7 +14606,7 @@
         <v>9</v>
       </c>
       <c r="C475" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D475" t="s">
         <v>9</v>
@@ -14533,7 +14641,7 @@
         <v>9</v>
       </c>
       <c r="F476" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G476" t="s">
         <v>9</v>
@@ -14576,7 +14684,7 @@
         <v>9</v>
       </c>
       <c r="C478" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D478" t="s">
         <v>9</v>
@@ -14611,7 +14719,7 @@
         <v>9</v>
       </c>
       <c r="F479" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G479" t="s">
         <v>9</v>
@@ -14677,7 +14785,7 @@
         <v>490</v>
       </c>
       <c r="B482" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C482" t="s">
         <v>9</v>
@@ -14703,16 +14811,16 @@
         <v>491</v>
       </c>
       <c r="B483" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C483" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D483" t="s">
         <v>9</v>
       </c>
       <c r="E483" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F483" t="s">
         <v>9</v>
@@ -14729,7 +14837,7 @@
         <v>492</v>
       </c>
       <c r="B484" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C484" t="s">
         <v>9</v>
@@ -14741,7 +14849,7 @@
         <v>9</v>
       </c>
       <c r="F484" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G484" t="s">
         <v>9</v>
@@ -14755,7 +14863,7 @@
         <v>493</v>
       </c>
       <c r="B485" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
@@ -14764,7 +14872,7 @@
         <v>9</v>
       </c>
       <c r="E485" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F485" t="s">
         <v>9</v>
@@ -14781,16 +14889,16 @@
         <v>494</v>
       </c>
       <c r="B486" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C486" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D486" t="s">
         <v>9</v>
       </c>
       <c r="E486" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F486" t="s">
         <v>9</v>
@@ -14810,7 +14918,7 @@
         <v>9</v>
       </c>
       <c r="C487" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D487" t="s">
         <v>9</v>
@@ -14845,7 +14953,7 @@
         <v>9</v>
       </c>
       <c r="F488" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G488" t="s">
         <v>9</v>
@@ -14859,7 +14967,7 @@
         <v>497</v>
       </c>
       <c r="B489" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C489" t="s">
         <v>9</v>
@@ -14888,13 +14996,13 @@
         <v>9</v>
       </c>
       <c r="C490" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D490" t="s">
         <v>9</v>
       </c>
       <c r="E490" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F490" t="s">
         <v>9</v>
@@ -14937,7 +15045,7 @@
         <v>500</v>
       </c>
       <c r="B492" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C492" t="s">
         <v>9</v>
@@ -14992,13 +15100,13 @@
         <v>9</v>
       </c>
       <c r="C494" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D494" t="s">
         <v>9</v>
       </c>
       <c r="E494" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F494" t="s">
         <v>9</v>
@@ -15027,13 +15135,13 @@
         <v>9</v>
       </c>
       <c r="F495" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G495" t="s">
         <v>9</v>
       </c>
       <c r="H495" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15041,7 +15149,7 @@
         <v>504</v>
       </c>
       <c r="B496" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C496" t="s">
         <v>9</v>
@@ -15105,7 +15213,7 @@
         <v>9</v>
       </c>
       <c r="F498" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G498" t="s">
         <v>9</v>
@@ -15122,13 +15230,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D499" t="s">
         <v>9</v>
       </c>
       <c r="E499" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F499" t="s">
         <v>9</v>
@@ -15145,7 +15253,7 @@
         <v>508</v>
       </c>
       <c r="B500" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C500" t="s">
         <v>9</v>
@@ -15154,7 +15262,7 @@
         <v>9</v>
       </c>
       <c r="E500" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F500" t="s">
         <v>9</v>
@@ -15197,7 +15305,7 @@
         <v>510</v>
       </c>
       <c r="B502" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C502" t="s">
         <v>9</v>
@@ -15223,16 +15331,16 @@
         <v>511</v>
       </c>
       <c r="B503" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C503" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D503" t="s">
         <v>9</v>
       </c>
       <c r="E503" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F503" t="s">
         <v>9</v>
@@ -15304,7 +15412,7 @@
         <v>9</v>
       </c>
       <c r="C506" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D506" t="s">
         <v>9</v>
@@ -15330,7 +15438,7 @@
         <v>9</v>
       </c>
       <c r="C507" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D507" t="s">
         <v>9</v>
@@ -15353,7 +15461,7 @@
         <v>516</v>
       </c>
       <c r="B508" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C508" t="s">
         <v>9</v>
@@ -15379,16 +15487,16 @@
         <v>517</v>
       </c>
       <c r="B509" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C509" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D509" t="s">
         <v>9</v>
       </c>
       <c r="E509" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F509" t="s">
         <v>9</v>
@@ -15405,10 +15513,10 @@
         <v>518</v>
       </c>
       <c r="B510" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C510" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D510" t="s">
         <v>9</v>
@@ -15431,7 +15539,7 @@
         <v>519</v>
       </c>
       <c r="B511" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C511" t="s">
         <v>9</v>
@@ -15457,7 +15565,7 @@
         <v>520</v>
       </c>
       <c r="B512" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C512" t="s">
         <v>9</v>
@@ -15466,7 +15574,7 @@
         <v>9</v>
       </c>
       <c r="E512" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F512" t="s">
         <v>9</v>
@@ -15483,10 +15591,10 @@
         <v>521</v>
       </c>
       <c r="B513" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C513" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D513" t="s">
         <v>9</v>
@@ -15535,16 +15643,16 @@
         <v>523</v>
       </c>
       <c r="B515" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C515" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D515" t="s">
         <v>9</v>
       </c>
       <c r="E515" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F515" t="s">
         <v>9</v>
@@ -15564,16 +15672,16 @@
         <v>9</v>
       </c>
       <c r="C516" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D516" t="s">
         <v>9</v>
       </c>
       <c r="E516" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F516" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G516" t="s">
         <v>9</v>
@@ -15599,7 +15707,7 @@
         <v>9</v>
       </c>
       <c r="F517" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G517" t="s">
         <v>9</v>
@@ -15613,10 +15721,10 @@
         <v>526</v>
       </c>
       <c r="B518" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C518" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D518" t="s">
         <v>9</v>
@@ -15639,7 +15747,7 @@
         <v>527</v>
       </c>
       <c r="B519" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C519" t="s">
         <v>9</v>
@@ -15668,7 +15776,7 @@
         <v>9</v>
       </c>
       <c r="C520" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D520" t="s">
         <v>9</v>
@@ -15714,10 +15822,10 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" t="s">
-        <v>530</v>
+        <v>238</v>
       </c>
       <c r="B522" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C522" t="s">
         <v>9</v>
@@ -15740,19 +15848,19 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" t="s">
-        <v>239</v>
+        <v>530</v>
       </c>
       <c r="B523" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C523" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D523" t="s">
         <v>9</v>
       </c>
       <c r="E523" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F523" t="s">
         <v>9</v>
@@ -15769,7 +15877,7 @@
         <v>531</v>
       </c>
       <c r="B524" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C524" t="s">
         <v>9</v>
@@ -15778,7 +15886,7 @@
         <v>9</v>
       </c>
       <c r="E524" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F524" t="s">
         <v>9</v>
@@ -15798,7 +15906,7 @@
         <v>9</v>
       </c>
       <c r="C525" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D525" t="s">
         <v>9</v>
@@ -15824,7 +15932,7 @@
         <v>9</v>
       </c>
       <c r="C526" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D526" t="s">
         <v>9</v>
@@ -15859,7 +15967,7 @@
         <v>9</v>
       </c>
       <c r="F527" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G527" t="s">
         <v>9</v>
@@ -15951,16 +16059,16 @@
         <v>538</v>
       </c>
       <c r="B531" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C531" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D531" t="s">
         <v>9</v>
       </c>
       <c r="E531" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F531" t="s">
         <v>9</v>
@@ -16006,7 +16114,7 @@
         <v>9</v>
       </c>
       <c r="C533" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D533" t="s">
         <v>9</v>
@@ -16041,7 +16149,7 @@
         <v>9</v>
       </c>
       <c r="F534" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G534" t="s">
         <v>9</v>
@@ -16078,7 +16186,7 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="B536" t="s">
         <v>9</v>
@@ -16093,7 +16201,7 @@
         <v>9</v>
       </c>
       <c r="F536" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G536" t="s">
         <v>9</v>
@@ -16104,10 +16212,10 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B537" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C537" t="s">
         <v>9</v>
@@ -16119,7 +16227,7 @@
         <v>9</v>
       </c>
       <c r="F537" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G537" t="s">
         <v>9</v>
@@ -16130,19 +16238,19 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" t="s">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="B538" t="s">
         <v>9</v>
       </c>
       <c r="C538" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D538" t="s">
         <v>9</v>
       </c>
       <c r="E538" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F538" t="s">
         <v>9</v>
@@ -16162,13 +16270,13 @@
         <v>9</v>
       </c>
       <c r="C539" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D539" t="s">
         <v>9</v>
       </c>
       <c r="E539" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F539" t="s">
         <v>9</v>
@@ -16182,10 +16290,10 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" t="s">
-        <v>389</v>
+        <v>546</v>
       </c>
       <c r="B540" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C540" t="s">
         <v>9</v>
@@ -16194,7 +16302,7 @@
         <v>9</v>
       </c>
       <c r="E540" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F540" t="s">
         <v>9</v>
@@ -16208,10 +16316,10 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B541" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C541" t="s">
         <v>9</v>
@@ -16223,7 +16331,7 @@
         <v>9</v>
       </c>
       <c r="F541" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G541" t="s">
         <v>9</v>
@@ -16234,10 +16342,10 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B542" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C542" t="s">
         <v>9</v>
@@ -16260,13 +16368,13 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B543" t="s">
         <v>9</v>
       </c>
       <c r="C543" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D543" t="s">
         <v>9</v>
@@ -16286,13 +16394,13 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B544" t="s">
         <v>9</v>
       </c>
       <c r="C544" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D544" t="s">
         <v>9</v>
@@ -16312,13 +16420,13 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B545" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C545" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D545" t="s">
         <v>9</v>
@@ -16338,10 +16446,10 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B546" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C546" t="s">
         <v>9</v>
@@ -16350,10 +16458,10 @@
         <v>9</v>
       </c>
       <c r="E546" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F546" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G546" t="s">
         <v>9</v>
@@ -16364,13 +16472,13 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B547" t="s">
         <v>9</v>
       </c>
       <c r="C547" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D547" t="s">
         <v>9</v>
@@ -16390,13 +16498,13 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B548" t="s">
         <v>9</v>
       </c>
       <c r="C548" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D548" t="s">
         <v>9</v>
@@ -16416,7 +16524,7 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B549" t="s">
         <v>9</v>
@@ -16431,7 +16539,7 @@
         <v>9</v>
       </c>
       <c r="F549" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G549" t="s">
         <v>9</v>
@@ -16442,7 +16550,7 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B550" t="s">
         <v>9</v>
@@ -16468,7 +16576,7 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B551" t="s">
         <v>9</v>
@@ -16494,10 +16602,10 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B552" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C552" t="s">
         <v>9</v>
@@ -16506,7 +16614,7 @@
         <v>9</v>
       </c>
       <c r="E552" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F552" t="s">
         <v>9</v>
@@ -16520,10 +16628,10 @@
     </row>
     <row r="553" spans="1:8">
       <c r="A553" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B553" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C553" t="s">
         <v>9</v>
@@ -16546,13 +16654,13 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B554" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C554" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D554" t="s">
         <v>9</v>
@@ -16572,7 +16680,7 @@
     </row>
     <row r="555" spans="1:8">
       <c r="A555" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B555" t="s">
         <v>9</v>
@@ -16587,18 +16695,18 @@
         <v>9</v>
       </c>
       <c r="F555" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G555" t="s">
         <v>9</v>
       </c>
       <c r="H555" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="556" spans="1:8">
       <c r="A556" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B556" t="s">
         <v>9</v>
@@ -16624,7 +16732,7 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B557" t="s">
         <v>9</v>
@@ -16639,7 +16747,7 @@
         <v>9</v>
       </c>
       <c r="F557" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G557" t="s">
         <v>9</v>
@@ -16650,7 +16758,7 @@
     </row>
     <row r="558" spans="1:8">
       <c r="A558" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B558" t="s">
         <v>9</v>
@@ -16665,7 +16773,7 @@
         <v>9</v>
       </c>
       <c r="F558" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G558" t="s">
         <v>9</v>
@@ -16676,10 +16784,10 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B559" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C559" t="s">
         <v>9</v>
@@ -16702,7 +16810,7 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B560" t="s">
         <v>9</v>
@@ -16717,7 +16825,7 @@
         <v>9</v>
       </c>
       <c r="F560" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G560" t="s">
         <v>9</v>
@@ -16728,13 +16836,13 @@
     </row>
     <row r="561" spans="1:8">
       <c r="A561" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B561" t="s">
         <v>9</v>
       </c>
       <c r="C561" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D561" t="s">
         <v>9</v>
@@ -16743,7 +16851,7 @@
         <v>9</v>
       </c>
       <c r="F561" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G561" t="s">
         <v>9</v>
@@ -16754,10 +16862,10 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B562" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C562" t="s">
         <v>9</v>
@@ -16780,10 +16888,10 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B563" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C563" t="s">
         <v>9</v>
@@ -16792,10 +16900,10 @@
         <v>9</v>
       </c>
       <c r="E563" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F563" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G563" t="s">
         <v>9</v>
@@ -16806,7 +16914,7 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B564" t="s">
         <v>9</v>
@@ -16821,10 +16929,10 @@
         <v>9</v>
       </c>
       <c r="F564" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G564" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16832,13 +16940,13 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B565" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C565" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D565" t="s">
         <v>9</v>
@@ -16858,7 +16966,7 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B566" t="s">
         <v>9</v>
@@ -16873,7 +16981,7 @@
         <v>9</v>
       </c>
       <c r="F566" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G566" t="s">
         <v>9</v>
@@ -16884,7 +16992,7 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B567" t="s">
         <v>9</v>
@@ -16910,13 +17018,13 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B568" t="s">
         <v>9</v>
       </c>
       <c r="C568" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D568" t="s">
         <v>9</v>
@@ -16934,12 +17042,922 @@
         <v>9</v>
       </c>
     </row>
+    <row r="569" spans="1:8">
+      <c r="A569" t="s">
+        <v>575</v>
+      </c>
+      <c r="B569" t="s">
+        <v>9</v>
+      </c>
+      <c r="C569" t="s">
+        <v>10</v>
+      </c>
+      <c r="D569" t="s">
+        <v>9</v>
+      </c>
+      <c r="E569" t="s">
+        <v>10</v>
+      </c>
+      <c r="F569" t="s">
+        <v>9</v>
+      </c>
+      <c r="G569" t="s">
+        <v>9</v>
+      </c>
+      <c r="H569" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" t="s">
+        <v>576</v>
+      </c>
+      <c r="B570" t="s">
+        <v>9</v>
+      </c>
+      <c r="C570" t="s">
+        <v>9</v>
+      </c>
+      <c r="D570" t="s">
+        <v>9</v>
+      </c>
+      <c r="E570" t="s">
+        <v>9</v>
+      </c>
+      <c r="F570" t="s">
+        <v>9</v>
+      </c>
+      <c r="G570" t="s">
+        <v>9</v>
+      </c>
+      <c r="H570" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" t="s">
+        <v>577</v>
+      </c>
+      <c r="B571" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571" t="s">
+        <v>9</v>
+      </c>
+      <c r="D571" t="s">
+        <v>9</v>
+      </c>
+      <c r="E571" t="s">
+        <v>9</v>
+      </c>
+      <c r="F571" t="s">
+        <v>9</v>
+      </c>
+      <c r="G571" t="s">
+        <v>9</v>
+      </c>
+      <c r="H571" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" t="s">
+        <v>578</v>
+      </c>
+      <c r="B572" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572" t="s">
+        <v>9</v>
+      </c>
+      <c r="D572" t="s">
+        <v>9</v>
+      </c>
+      <c r="E572" t="s">
+        <v>9</v>
+      </c>
+      <c r="F572" t="s">
+        <v>9</v>
+      </c>
+      <c r="G572" t="s">
+        <v>9</v>
+      </c>
+      <c r="H572" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" t="s">
+        <v>579</v>
+      </c>
+      <c r="B573" t="s">
+        <v>9</v>
+      </c>
+      <c r="C573" t="s">
+        <v>10</v>
+      </c>
+      <c r="D573" t="s">
+        <v>9</v>
+      </c>
+      <c r="E573" t="s">
+        <v>9</v>
+      </c>
+      <c r="F573" t="s">
+        <v>9</v>
+      </c>
+      <c r="G573" t="s">
+        <v>9</v>
+      </c>
+      <c r="H573" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" t="s">
+        <v>580</v>
+      </c>
+      <c r="B574" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574" t="s">
+        <v>9</v>
+      </c>
+      <c r="D574" t="s">
+        <v>9</v>
+      </c>
+      <c r="E574" t="s">
+        <v>9</v>
+      </c>
+      <c r="F574" t="s">
+        <v>9</v>
+      </c>
+      <c r="G574" t="s">
+        <v>9</v>
+      </c>
+      <c r="H574" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" t="s">
+        <v>581</v>
+      </c>
+      <c r="B575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575" t="s">
+        <v>9</v>
+      </c>
+      <c r="D575" t="s">
+        <v>9</v>
+      </c>
+      <c r="E575" t="s">
+        <v>9</v>
+      </c>
+      <c r="F575" t="s">
+        <v>10</v>
+      </c>
+      <c r="G575" t="s">
+        <v>9</v>
+      </c>
+      <c r="H575" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" t="s">
+        <v>582</v>
+      </c>
+      <c r="B576" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576" t="s">
+        <v>9</v>
+      </c>
+      <c r="D576" t="s">
+        <v>9</v>
+      </c>
+      <c r="E576" t="s">
+        <v>9</v>
+      </c>
+      <c r="F576" t="s">
+        <v>10</v>
+      </c>
+      <c r="G576" t="s">
+        <v>9</v>
+      </c>
+      <c r="H576" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" t="s">
+        <v>583</v>
+      </c>
+      <c r="B577" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" t="s">
+        <v>9</v>
+      </c>
+      <c r="D577" t="s">
+        <v>9</v>
+      </c>
+      <c r="E577" t="s">
+        <v>9</v>
+      </c>
+      <c r="F577" t="s">
+        <v>9</v>
+      </c>
+      <c r="G577" t="s">
+        <v>9</v>
+      </c>
+      <c r="H577" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" t="s">
+        <v>584</v>
+      </c>
+      <c r="B578" t="s">
+        <v>10</v>
+      </c>
+      <c r="C578" t="s">
+        <v>9</v>
+      </c>
+      <c r="D578" t="s">
+        <v>9</v>
+      </c>
+      <c r="E578" t="s">
+        <v>10</v>
+      </c>
+      <c r="F578" t="s">
+        <v>9</v>
+      </c>
+      <c r="G578" t="s">
+        <v>9</v>
+      </c>
+      <c r="H578" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" t="s">
+        <v>585</v>
+      </c>
+      <c r="B579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" t="s">
+        <v>9</v>
+      </c>
+      <c r="D579" t="s">
+        <v>9</v>
+      </c>
+      <c r="E579" t="s">
+        <v>9</v>
+      </c>
+      <c r="F579" t="s">
+        <v>9</v>
+      </c>
+      <c r="G579" t="s">
+        <v>9</v>
+      </c>
+      <c r="H579" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" t="s">
+        <v>586</v>
+      </c>
+      <c r="B580" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" t="s">
+        <v>9</v>
+      </c>
+      <c r="E580" t="s">
+        <v>9</v>
+      </c>
+      <c r="F580" t="s">
+        <v>9</v>
+      </c>
+      <c r="G580" t="s">
+        <v>9</v>
+      </c>
+      <c r="H580" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" t="s">
+        <v>587</v>
+      </c>
+      <c r="B581" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581" t="s">
+        <v>9</v>
+      </c>
+      <c r="D581" t="s">
+        <v>9</v>
+      </c>
+      <c r="E581" t="s">
+        <v>9</v>
+      </c>
+      <c r="F581" t="s">
+        <v>10</v>
+      </c>
+      <c r="G581" t="s">
+        <v>9</v>
+      </c>
+      <c r="H581" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" t="s">
+        <v>588</v>
+      </c>
+      <c r="B582" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582" t="s">
+        <v>9</v>
+      </c>
+      <c r="D582" t="s">
+        <v>9</v>
+      </c>
+      <c r="E582" t="s">
+        <v>9</v>
+      </c>
+      <c r="F582" t="s">
+        <v>10</v>
+      </c>
+      <c r="G582" t="s">
+        <v>9</v>
+      </c>
+      <c r="H582" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" t="s">
+        <v>589</v>
+      </c>
+      <c r="B583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" t="s">
+        <v>10</v>
+      </c>
+      <c r="D583" t="s">
+        <v>9</v>
+      </c>
+      <c r="E583" t="s">
+        <v>9</v>
+      </c>
+      <c r="F583" t="s">
+        <v>9</v>
+      </c>
+      <c r="G583" t="s">
+        <v>9</v>
+      </c>
+      <c r="H583" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" t="s">
+        <v>590</v>
+      </c>
+      <c r="B584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584" t="s">
+        <v>9</v>
+      </c>
+      <c r="D584" t="s">
+        <v>9</v>
+      </c>
+      <c r="E584" t="s">
+        <v>9</v>
+      </c>
+      <c r="F584" t="s">
+        <v>9</v>
+      </c>
+      <c r="G584" t="s">
+        <v>9</v>
+      </c>
+      <c r="H584" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" t="s">
+        <v>591</v>
+      </c>
+      <c r="B585" t="s">
+        <v>9</v>
+      </c>
+      <c r="C585" t="s">
+        <v>10</v>
+      </c>
+      <c r="D585" t="s">
+        <v>9</v>
+      </c>
+      <c r="E585" t="s">
+        <v>9</v>
+      </c>
+      <c r="F585" t="s">
+        <v>9</v>
+      </c>
+      <c r="G585" t="s">
+        <v>9</v>
+      </c>
+      <c r="H585" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" t="s">
+        <v>592</v>
+      </c>
+      <c r="B586" t="s">
+        <v>9</v>
+      </c>
+      <c r="C586" t="s">
+        <v>10</v>
+      </c>
+      <c r="D586" t="s">
+        <v>9</v>
+      </c>
+      <c r="E586" t="s">
+        <v>10</v>
+      </c>
+      <c r="F586" t="s">
+        <v>9</v>
+      </c>
+      <c r="G586" t="s">
+        <v>9</v>
+      </c>
+      <c r="H586" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" t="s">
+        <v>593</v>
+      </c>
+      <c r="B587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587" t="s">
+        <v>10</v>
+      </c>
+      <c r="D587" t="s">
+        <v>9</v>
+      </c>
+      <c r="E587" t="s">
+        <v>9</v>
+      </c>
+      <c r="F587" t="s">
+        <v>9</v>
+      </c>
+      <c r="G587" t="s">
+        <v>9</v>
+      </c>
+      <c r="H587" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" t="s">
+        <v>594</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588" t="s">
+        <v>10</v>
+      </c>
+      <c r="D588" t="s">
+        <v>9</v>
+      </c>
+      <c r="E588" t="s">
+        <v>9</v>
+      </c>
+      <c r="F588" t="s">
+        <v>9</v>
+      </c>
+      <c r="G588" t="s">
+        <v>9</v>
+      </c>
+      <c r="H588" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" t="s">
+        <v>595</v>
+      </c>
+      <c r="B589" t="s">
+        <v>9</v>
+      </c>
+      <c r="C589" t="s">
+        <v>10</v>
+      </c>
+      <c r="D589" t="s">
+        <v>9</v>
+      </c>
+      <c r="E589" t="s">
+        <v>9</v>
+      </c>
+      <c r="F589" t="s">
+        <v>9</v>
+      </c>
+      <c r="G589" t="s">
+        <v>9</v>
+      </c>
+      <c r="H589" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" t="s">
+        <v>596</v>
+      </c>
+      <c r="B590" t="s">
+        <v>9</v>
+      </c>
+      <c r="C590" t="s">
+        <v>9</v>
+      </c>
+      <c r="D590" t="s">
+        <v>9</v>
+      </c>
+      <c r="E590" t="s">
+        <v>9</v>
+      </c>
+      <c r="F590" t="s">
+        <v>9</v>
+      </c>
+      <c r="G590" t="s">
+        <v>9</v>
+      </c>
+      <c r="H590" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" t="s">
+        <v>597</v>
+      </c>
+      <c r="B591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591" t="s">
+        <v>9</v>
+      </c>
+      <c r="D591" t="s">
+        <v>9</v>
+      </c>
+      <c r="E591" t="s">
+        <v>9</v>
+      </c>
+      <c r="F591" t="s">
+        <v>9</v>
+      </c>
+      <c r="G591" t="s">
+        <v>9</v>
+      </c>
+      <c r="H591" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" t="s">
+        <v>598</v>
+      </c>
+      <c r="B592" t="s">
+        <v>9</v>
+      </c>
+      <c r="C592" t="s">
+        <v>9</v>
+      </c>
+      <c r="D592" t="s">
+        <v>9</v>
+      </c>
+      <c r="E592" t="s">
+        <v>9</v>
+      </c>
+      <c r="F592" t="s">
+        <v>10</v>
+      </c>
+      <c r="G592" t="s">
+        <v>9</v>
+      </c>
+      <c r="H592" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" t="s">
+        <v>599</v>
+      </c>
+      <c r="B593" t="s">
+        <v>9</v>
+      </c>
+      <c r="C593" t="s">
+        <v>9</v>
+      </c>
+      <c r="D593" t="s">
+        <v>9</v>
+      </c>
+      <c r="E593" t="s">
+        <v>10</v>
+      </c>
+      <c r="F593" t="s">
+        <v>9</v>
+      </c>
+      <c r="G593" t="s">
+        <v>9</v>
+      </c>
+      <c r="H593" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" t="s">
+        <v>600</v>
+      </c>
+      <c r="B594" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" t="s">
+        <v>10</v>
+      </c>
+      <c r="D594" t="s">
+        <v>9</v>
+      </c>
+      <c r="E594" t="s">
+        <v>9</v>
+      </c>
+      <c r="F594" t="s">
+        <v>9</v>
+      </c>
+      <c r="G594" t="s">
+        <v>9</v>
+      </c>
+      <c r="H594" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" t="s">
+        <v>601</v>
+      </c>
+      <c r="B595" t="s">
+        <v>9</v>
+      </c>
+      <c r="C595" t="s">
+        <v>9</v>
+      </c>
+      <c r="D595" t="s">
+        <v>9</v>
+      </c>
+      <c r="E595" t="s">
+        <v>9</v>
+      </c>
+      <c r="F595" t="s">
+        <v>9</v>
+      </c>
+      <c r="G595" t="s">
+        <v>9</v>
+      </c>
+      <c r="H595" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" t="s">
+        <v>602</v>
+      </c>
+      <c r="B596" t="s">
+        <v>9</v>
+      </c>
+      <c r="C596" t="s">
+        <v>10</v>
+      </c>
+      <c r="D596" t="s">
+        <v>9</v>
+      </c>
+      <c r="E596" t="s">
+        <v>9</v>
+      </c>
+      <c r="F596" t="s">
+        <v>9</v>
+      </c>
+      <c r="G596" t="s">
+        <v>9</v>
+      </c>
+      <c r="H596" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" t="s">
+        <v>603</v>
+      </c>
+      <c r="B597" t="s">
+        <v>9</v>
+      </c>
+      <c r="C597" t="s">
+        <v>10</v>
+      </c>
+      <c r="D597" t="s">
+        <v>9</v>
+      </c>
+      <c r="E597" t="s">
+        <v>9</v>
+      </c>
+      <c r="F597" t="s">
+        <v>9</v>
+      </c>
+      <c r="G597" t="s">
+        <v>9</v>
+      </c>
+      <c r="H597" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598" t="s">
+        <v>604</v>
+      </c>
+      <c r="B598" t="s">
+        <v>9</v>
+      </c>
+      <c r="C598" t="s">
+        <v>9</v>
+      </c>
+      <c r="D598" t="s">
+        <v>9</v>
+      </c>
+      <c r="E598" t="s">
+        <v>9</v>
+      </c>
+      <c r="F598" t="s">
+        <v>9</v>
+      </c>
+      <c r="G598" t="s">
+        <v>9</v>
+      </c>
+      <c r="H598" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" t="s">
+        <v>605</v>
+      </c>
+      <c r="B599" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599" t="s">
+        <v>9</v>
+      </c>
+      <c r="D599" t="s">
+        <v>9</v>
+      </c>
+      <c r="E599" t="s">
+        <v>9</v>
+      </c>
+      <c r="F599" t="s">
+        <v>9</v>
+      </c>
+      <c r="G599" t="s">
+        <v>9</v>
+      </c>
+      <c r="H599" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" t="s">
+        <v>606</v>
+      </c>
+      <c r="B600" t="s">
+        <v>9</v>
+      </c>
+      <c r="C600" t="s">
+        <v>10</v>
+      </c>
+      <c r="D600" t="s">
+        <v>9</v>
+      </c>
+      <c r="E600" t="s">
+        <v>9</v>
+      </c>
+      <c r="F600" t="s">
+        <v>9</v>
+      </c>
+      <c r="G600" t="s">
+        <v>9</v>
+      </c>
+      <c r="H600" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" t="s">
+        <v>607</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" t="s">
+        <v>9</v>
+      </c>
+      <c r="D601" t="s">
+        <v>9</v>
+      </c>
+      <c r="E601" t="s">
+        <v>9</v>
+      </c>
+      <c r="F601" t="s">
+        <v>9</v>
+      </c>
+      <c r="G601" t="s">
+        <v>9</v>
+      </c>
+      <c r="H601" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" t="s">
+        <v>608</v>
+      </c>
+      <c r="B602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C602" t="s">
+        <v>9</v>
+      </c>
+      <c r="D602" t="s">
+        <v>9</v>
+      </c>
+      <c r="E602" t="s">
+        <v>9</v>
+      </c>
+      <c r="F602" t="s">
+        <v>9</v>
+      </c>
+      <c r="G602" t="s">
+        <v>9</v>
+      </c>
+      <c r="H602" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" t="s">
+        <v>609</v>
+      </c>
+      <c r="B603" t="s">
+        <v>9</v>
+      </c>
+      <c r="C603" t="s">
+        <v>10</v>
+      </c>
+      <c r="D603" t="s">
+        <v>9</v>
+      </c>
+      <c r="E603" t="s">
+        <v>10</v>
+      </c>
+      <c r="F603" t="s">
+        <v>9</v>
+      </c>
+      <c r="G603" t="s">
+        <v>9</v>
+      </c>
+      <c r="H603" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H568"/>
+  <autoFilter ref="A1:H603"/>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1705680058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1709043473" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16948,16 +17966,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1705680058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1705680058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1705680058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1705680058" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1709043473" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1709043473" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1709043473" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1709043473" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705680058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1709043473" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
